--- a/doc/category.xlsx
+++ b/doc/category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apm\Apache24\htdocs\Project_greenRecycle\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D749CE28-4A16-4F20-865F-D7E32C32F240}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBDAE2A-D33D-4938-B53C-87BFC2B70516}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{DFE8DDF5-8C83-4AF4-8A13-9259934DFAAC}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="23400" windowHeight="11385" xr2:uid="{DFE8DDF5-8C83-4AF4-8A13-9259934DFAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,10 +614,10 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">
@@ -632,6 +632,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -644,10 +646,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
@@ -662,6 +664,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -674,6 +678,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -686,6 +692,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -698,6 +706,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -710,6 +720,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -722,6 +734,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -752,10 +766,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C12" t="s">
@@ -770,6 +784,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -782,6 +798,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -794,6 +812,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -806,6 +826,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -836,10 +858,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
@@ -854,6 +876,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>22</v>
       </c>
@@ -866,10 +890,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
@@ -884,6 +908,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -896,6 +922,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -908,6 +936,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>23</v>
       </c>
@@ -920,10 +950,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C24" t="s">
@@ -938,6 +968,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>29</v>
       </c>
@@ -968,9 +1000,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="14">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/category.xlsx
+++ b/doc/category.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apm\Apache24\htdocs\Project_greenRecycle\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBDAE2A-D33D-4938-B53C-87BFC2B70516}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="23400" windowHeight="11385" xr2:uid="{DFE8DDF5-8C83-4AF4-8A13-9259934DFAAC}"/>
+    <workbookView xWindow="3516" yWindow="3516" windowWidth="23256" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주방기기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주방용품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,82 +146,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주방기기_업소용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주방기기_가정용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업공구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>건축자재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,7 +302,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,114 +606,114 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9826F564-B2C9-4F2F-AACB-FE52B7B0EECB}">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE($B$2,D2)</f>
         <v>Aa</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3" si="0">CONCATENATE($B$2,D3)</f>
         <v>Ab</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" t="str">
         <f>CONCATENATE($B$4,D4)</f>
         <v>Ba</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E10" si="1">CONCATENATE($B$4,D5)</f>
         <v>Bb</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
         <v>Bc</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
@@ -705,310 +727,350 @@
         <v>Bd</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
         <v>Be</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
         <v>Bf</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
         <v>Bg</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" t="str">
         <f>CONCATENATE($B$11,D11)</f>
         <v>Ca</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="str">
+        <f>CONCATENATE($B$11,D12)</f>
+        <v>Cb</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="str">
-        <f>CONCATENATE($B$12,D12)</f>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="str">
+        <f>CONCATENATE($B$13,D13)</f>
         <v>Da</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" ref="E13:E16" si="2">CONCATENATE($B$12,D13)</f>
-        <v>Db</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
-        <v>Dc</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <f>CONCATENATE($B$13,D14)</f>
+        <v>Db</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
-        <v>Dd</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <f>CONCATENATE($B$13,D15)</f>
+        <v>Dc</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
-        <v>De</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
+        <f>CONCATENATE($B$13,D16)</f>
+        <v>Dd</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE($B$17,D17)</f>
+        <f>CONCATENATE($B$13,D17)</f>
+        <v>De</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="str">
+        <f>CONCATENATE($B$13,D18)</f>
+        <v>Df</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="str">
+        <f>CONCATENATE($B$19,D19)</f>
         <v>Ea</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="str">
-        <f>CONCATENATE($B$18,D18)</f>
-        <v>Fa</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="str">
-        <f>CONCATENATE($B$18,D19)</f>
-        <v>Fb</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
       </c>
       <c r="E20" t="str">
         <f>CONCATENATE($B$20,D20)</f>
-        <v>Ga</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Fa</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" ref="E21:E23" si="3">CONCATENATE($B$20,D21)</f>
-        <v>Gb</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <f>CONCATENATE($B$20,D21)</f>
+        <v>Fb</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="3"/>
-        <v>Gc</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E22:E23" si="2">CONCATENATE($B$20,D22)</f>
+        <v>Fc</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>Fd</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="3"/>
-        <v>Gd</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E24" t="str">
         <f>CONCATENATE($B$24,D24)</f>
-        <v>Ha</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Ga</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E25" t="str">
-        <f>CONCATENATE($B$24,D25)</f>
+        <f t="shared" ref="E25:E27" si="3">CONCATENATE($B$24,D25)</f>
+        <v>Gb</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v>Gc</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v>Gd</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="str">
+        <f>CONCATENATE($B$28,D28)</f>
+        <v>Ha</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="str">
+        <f>CONCATENATE($B$28,D29)</f>
         <v>Hb</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" t="str">
-        <f>CONCATENATE($B$26,D26)</f>
-        <v>Ia</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
+  <mergeCells count="16">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:A3"/>
